--- a/biology/Médecine/Abot-Kamay_na_Pangarap/Abot-Kamay_na_Pangarap.xlsx
+++ b/biology/Médecine/Abot-Kamay_na_Pangarap/Abot-Kamay_na_Pangarap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Abot-Kamay na Pangarap est une telenovela philippine diffusée depuis le 5 septembre 2022 sur le réseau GMA Network[1],.
+Abot-Kamay na Pangarap est une telenovela philippine diffusée depuis le 5 septembre 2022 sur le réseau GMA Network,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série suit l'histoire de la vie d'une mère analphabète nommée Lyneth et de sa fille intelligente Analyn, la plus jeune neurochirurgienne des Philippines.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acteurs principaux
 Carmina Villarroel : Lyneth Santos-Tanyag
@@ -603,7 +619,9 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> GMA Network (depuis 2022)</t>
         </is>
